--- a/MATLAB/Parameter_Estimation_Results/InitialGuesses_50_Simulations.xlsx
+++ b/MATLAB/Parameter_Estimation_Results/InitialGuesses_50_Simulations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Documents/EduardoChacin/FirstSemester/Research/SRdrugdelcollab/Parameter_Estimation_Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echacinr\OneDrive - University at Buffalo\Desktop\LayeredSpheres_DDSdesign-master\MATLAB\Parameter_Estimation_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="731" documentId="8_{0C72D746-0050-4911-B2FB-03A3CF241C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D71156-225D-4085-8D23-59066FBA6BC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD13FB-E7E2-4C99-8D78-9DC42DD75DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{F3D94057-6845-4803-AE2C-9E4A9CED9EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{F3D94057-6845-4803-AE2C-9E4A9CED9EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="BSA_MAT" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A9580-71F7-4D76-A6A5-BAB1DF238142}">
   <dimension ref="A1:BA173"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.0199999999999996</v>
+        <v>4.58</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -9767,8 +9767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AE0654-5E8C-46B9-B899-B6F5B00C3969}">
   <dimension ref="A1:BG173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9928,17 +9928,17 @@
       <c r="H3">
         <v>435.680084971209</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>10.295145332815901</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>2.5850178474830098E-15</v>
       </c>
-      <c r="L3" s="1">
-        <f>K3*1000</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L34" si="0">K3*1000</f>
         <v>2.58501784748301E-12</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>435.05928668684999</v>
       </c>
       <c r="N3">
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.52</v>
+        <v>10.17</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>9.5397090102575908E-14</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C52" si="0">B4*1000</f>
+        <f t="shared" ref="C4:C52" si="1">B4*1000</f>
         <v>9.5397090102575904E-11</v>
       </c>
       <c r="E4">
@@ -9984,23 +9984,23 @@
         <v>2.60812557236111E-15</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G52" si="1">F4*1000</f>
+        <f t="shared" ref="G4:G52" si="2">F4*1000</f>
         <v>2.6081255723611101E-12</v>
       </c>
       <c r="H4">
         <v>435.42137076654097</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>10.296267807681501</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>2.5882152137135498E-15</v>
       </c>
-      <c r="L4" s="1">
-        <f>K4*1000</f>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
         <v>2.58821521371355E-12</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>435.06430321532099</v>
       </c>
       <c r="N4">
@@ -10036,7 +10036,7 @@
         <v>2.3100990118376801E-14</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3100990118376802E-11</v>
       </c>
       <c r="E5">
@@ -10046,23 +10046,23 @@
         <v>2.6420263279419399E-15</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6420263279419398E-12</v>
       </c>
       <c r="H5">
         <v>435.81335118015897</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>10.296267807681501</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>2.5882152137135498E-15</v>
       </c>
-      <c r="L5" s="1">
-        <f>K5*1000</f>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
         <v>2.58821521371355E-12</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>435.06430321532099</v>
       </c>
       <c r="N5">
@@ -10098,7 +10098,7 @@
         <v>5.5877815156291199E-14</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5877815156291199E-11</v>
       </c>
       <c r="E6">
@@ -10108,23 +10108,23 @@
         <v>2.6342454581949598E-15</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6342454581949597E-12</v>
       </c>
       <c r="H6">
         <v>435.79195613971098</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>10.3055375590507</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>2.57992605956877E-15</v>
       </c>
-      <c r="L6" s="1">
-        <f>K6*1000</f>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
         <v>2.57992605956877E-12</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>435.06647237427097</v>
       </c>
       <c r="N6">
@@ -10160,7 +10160,7 @@
         <v>9.3517352625391911E-14</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3517352625391906E-11</v>
       </c>
       <c r="E7">
@@ -10170,23 +10170,23 @@
         <v>2.58987918870344E-15</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5898791887034402E-12</v>
       </c>
       <c r="H7">
         <v>435.32409309268502</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>10.2444523700423</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>2.5889823505349101E-15</v>
       </c>
-      <c r="L7" s="1">
-        <f>K7*1000</f>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
         <v>2.5889823505349103E-12</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>435.07072026446298</v>
       </c>
       <c r="N7">
@@ -10222,7 +10222,7 @@
         <v>5.92633624048122E-15</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9263362404812197E-12</v>
       </c>
       <c r="E8">
@@ -10232,23 +10232,23 @@
         <v>2.7086561121503E-15</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7086561121502998E-12</v>
       </c>
       <c r="H8">
         <v>438.17506850762402</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>10.2654558866207</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <v>2.59587991771656E-15</v>
       </c>
-      <c r="L8" s="1">
-        <f>K8*1000</f>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
         <v>2.59587991771656E-12</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>435.07656196659002</v>
       </c>
       <c r="N8">
@@ -10284,7 +10284,7 @@
         <v>4.8597802488198203E-14</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8597802488198201E-11</v>
       </c>
       <c r="E9">
@@ -10294,23 +10294,23 @@
         <v>2.60727572511289E-15</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6072757251128901E-12</v>
       </c>
       <c r="H9">
         <v>435.23126472822901</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>10.2964463022101</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <v>2.5942696027291999E-15</v>
       </c>
-      <c r="L9" s="1">
-        <f>K9*1000</f>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
         <v>2.5942696027291998E-12</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>435.08422956597701</v>
       </c>
       <c r="N9">
@@ -10346,7 +10346,7 @@
         <v>1.21355393420203E-14</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.21355393420203E-11</v>
       </c>
       <c r="E10">
@@ -10356,23 +10356,23 @@
         <v>2.5520143267072601E-15</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5520143267072602E-12</v>
       </c>
       <c r="H10">
         <v>435.37082014741401</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>10.2165447786005</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <v>2.59023577006609E-15</v>
       </c>
-      <c r="L10" s="1">
-        <f>K10*1000</f>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
         <v>2.5902357700660899E-12</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>435.08973859011002</v>
       </c>
       <c r="N10">
@@ -10408,7 +10408,7 @@
         <v>1.2303479773685601E-15</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2303479773685601E-12</v>
       </c>
       <c r="E11">
@@ -10418,23 +10418,23 @@
         <v>2.6105821044834601E-15</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6105821044834603E-12</v>
       </c>
       <c r="H11">
         <v>435.77796510962003</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>10.2326494594595</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <v>2.5949727887124701E-15</v>
       </c>
-      <c r="L11" s="1">
-        <f>K11*1000</f>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
         <v>2.5949727887124701E-12</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>435.16787043273598</v>
       </c>
       <c r="N11">
@@ -10470,7 +10470,7 @@
         <v>9.3542514592987806E-15</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3542514592987804E-12</v>
       </c>
       <c r="E12">
@@ -10480,23 +10480,23 @@
         <v>2.60103663481621E-15</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6010366348162101E-12</v>
       </c>
       <c r="H12">
         <v>435.261797072695</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>10.3598410540804</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3">
         <v>2.5763085335343802E-15</v>
       </c>
-      <c r="L12" s="1">
-        <f>K12*1000</f>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
         <v>2.5763085335343801E-12</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>435.18774925085802</v>
       </c>
       <c r="N12">
@@ -10532,7 +10532,7 @@
         <v>2.0406901889004902E-14</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0406901889004901E-11</v>
       </c>
       <c r="E13">
@@ -10542,23 +10542,23 @@
         <v>2.63910664266862E-15</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.63910664266862E-12</v>
       </c>
       <c r="H13">
         <v>437.368976580425</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>10.2223699195322</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <v>2.5893286057591698E-15</v>
       </c>
-      <c r="L13" s="1">
-        <f>K13*1000</f>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
         <v>2.5893286057591697E-12</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>435.19568705974098</v>
       </c>
       <c r="N13">
@@ -10594,7 +10594,7 @@
         <v>1.64470941926545E-15</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6447094192654499E-12</v>
       </c>
       <c r="E14">
@@ -10604,23 +10604,23 @@
         <v>2.6085809603158099E-15</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6085809603158097E-12</v>
       </c>
       <c r="H14">
         <v>435.289911306406</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>10.286837460728901</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <v>2.5888373400803598E-15</v>
       </c>
-      <c r="L14" s="1">
-        <f>K14*1000</f>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
         <v>2.5888373400803598E-12</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>435.20536290234003</v>
       </c>
       <c r="N14">
@@ -10647,7 +10647,7 @@
         <v>9.1637420389462003E-14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1637420389462007E-11</v>
       </c>
       <c r="E15">
@@ -10657,23 +10657,23 @@
         <v>2.5949727887124701E-15</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5949727887124701E-12</v>
       </c>
       <c r="H15">
         <v>435.16787043273598</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>10.327958776910201</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <v>2.5722076209104398E-15</v>
       </c>
-      <c r="L15" s="1">
-        <f>K15*1000</f>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
         <v>2.5722076209104399E-12</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>435.207577289955</v>
       </c>
       <c r="N15">
@@ -10700,7 +10700,7 @@
         <v>9.3977727855144106E-15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3977727855144113E-12</v>
       </c>
       <c r="E16">
@@ -10710,23 +10710,23 @@
         <v>2.6598526914785698E-15</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6598526914785697E-12</v>
       </c>
       <c r="H16">
         <v>436.24714512179702</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>10.2418532813286</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <v>2.5999418817288201E-15</v>
       </c>
-      <c r="L16" s="1">
-        <f>K16*1000</f>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
         <v>2.59994188172882E-12</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>435.21693915763097</v>
       </c>
       <c r="N16">
@@ -10753,7 +10753,7 @@
         <v>1.0700246349146602E-15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0700246349146601E-12</v>
       </c>
       <c r="E17">
@@ -10763,23 +10763,23 @@
         <v>2.5882152137135498E-15</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.58821521371355E-12</v>
       </c>
       <c r="H17">
         <v>435.06430321532099</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>10.277549593454401</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <v>2.5839730397320499E-15</v>
       </c>
-      <c r="L17" s="1">
-        <f>K17*1000</f>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
         <v>2.58397303973205E-12</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>435.22412173460401</v>
       </c>
       <c r="N17">
@@ -10806,7 +10806,7 @@
         <v>7.5091187732005206E-14</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5091187732005201E-11</v>
       </c>
       <c r="E18">
@@ -10816,23 +10816,23 @@
         <v>2.6278034878158599E-15</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.62780348781586E-12</v>
       </c>
       <c r="H18">
         <v>437.04391293420099</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>10.138474880012399</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <v>2.60727572511289E-15</v>
       </c>
-      <c r="L18" s="1">
-        <f>K18*1000</f>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
         <v>2.6072757251128901E-12</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>435.23126472822901</v>
       </c>
       <c r="N18">
@@ -10859,7 +10859,7 @@
         <v>5.3679631252260702E-15</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3679631252260702E-12</v>
       </c>
       <c r="E19">
@@ -10869,23 +10869,23 @@
         <v>2.6085635092667902E-15</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.60856350926679E-12</v>
       </c>
       <c r="H19">
         <v>435.46314062943497</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>10.162674448917601</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <v>2.59623656872582E-15</v>
       </c>
-      <c r="L19" s="1">
-        <f>K19*1000</f>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
         <v>2.59623656872582E-12</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>435.26043625155501</v>
       </c>
       <c r="N19">
@@ -10912,7 +10912,7 @@
         <v>7.8949628729786199E-15</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8949628729786204E-12</v>
       </c>
       <c r="E20">
@@ -10922,23 +10922,23 @@
         <v>2.5763085335343802E-15</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5763085335343801E-12</v>
       </c>
       <c r="H20">
         <v>435.18774925085802</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>10.25125837064</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <v>2.60103663481621E-15</v>
       </c>
-      <c r="L20" s="1">
-        <f>K20*1000</f>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
         <v>2.6010366348162101E-12</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>435.261797072695</v>
       </c>
       <c r="N20">
@@ -10965,7 +10965,7 @@
         <v>2.0875572435882999E-15</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0875572435882998E-12</v>
       </c>
       <c r="E21">
@@ -10975,23 +10975,23 @@
         <v>2.58987918870344E-15</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5898791887034402E-12</v>
       </c>
       <c r="H21">
         <v>435.32409309268502</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>10.249501722527301</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <v>2.6085809603158099E-15</v>
       </c>
-      <c r="L21" s="1">
-        <f>K21*1000</f>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
         <v>2.6085809603158097E-12</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>435.289911306406</v>
       </c>
       <c r="N21">
@@ -11018,7 +11018,7 @@
         <v>1.5304060069612898E-14</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5304060069612899E-11</v>
       </c>
       <c r="E22">
@@ -11028,23 +11028,23 @@
         <v>2.5889823505349101E-15</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5889823505349103E-12</v>
       </c>
       <c r="H22">
         <v>435.07072026446298</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>10.1815814487853</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="3">
         <v>2.5914084122223098E-15</v>
       </c>
-      <c r="L22" s="1">
-        <f>K22*1000</f>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
         <v>2.5914084122223097E-12</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>435.30974659738899</v>
       </c>
       <c r="N22">
@@ -11071,7 +11071,7 @@
         <v>3.5646489723817196E-15</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5646489723817197E-12</v>
       </c>
       <c r="E23">
@@ -11081,23 +11081,23 @@
         <v>2.5592802397881498E-15</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5592802397881497E-12</v>
       </c>
       <c r="H23">
         <v>436.57265600396801</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>10.069696830903</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <v>2.60430543772917E-15</v>
       </c>
-      <c r="L23" s="1">
-        <f>K23*1000</f>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
         <v>2.6043054377291699E-12</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>435.31471684367801</v>
       </c>
       <c r="N23">
@@ -11124,7 +11124,7 @@
         <v>2.3732102370295901E-14</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3732102370295899E-11</v>
       </c>
       <c r="E24">
@@ -11134,23 +11134,23 @@
         <v>2.5850178474830098E-15</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.58501784748301E-12</v>
       </c>
       <c r="H24">
         <v>435.05928668684999</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>10.269402988788899</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <v>2.5651185891625402E-15</v>
       </c>
-      <c r="L24" s="1">
-        <f>K24*1000</f>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
         <v>2.56511858916254E-12</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <v>435.32352749312997</v>
       </c>
       <c r="N24">
@@ -11177,7 +11177,7 @@
         <v>3.6577872549710501E-14</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6577872549710499E-11</v>
       </c>
       <c r="E25">
@@ -11187,23 +11187,23 @@
         <v>2.61504065136513E-15</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.61504065136513E-12</v>
       </c>
       <c r="H25">
         <v>435.61427789792498</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>10.4266358733553</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <v>2.58987918870344E-15</v>
       </c>
-      <c r="L25" s="1">
-        <f>K25*1000</f>
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
         <v>2.5898791887034402E-12</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <v>435.32409309268502</v>
       </c>
       <c r="N25">
@@ -11230,7 +11230,7 @@
         <v>5.6494932601709603E-14</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6494932601709602E-11</v>
       </c>
       <c r="E26">
@@ -11240,23 +11240,23 @@
         <v>2.6400135939308799E-15</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.64001359393088E-12</v>
       </c>
       <c r="H26">
         <v>435.72022051924301</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>10.4266358733553</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <v>2.58987918870344E-15</v>
       </c>
-      <c r="L26" s="1">
-        <f>K26*1000</f>
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
         <v>2.5898791887034402E-12</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="2">
         <v>435.32409309268502</v>
       </c>
       <c r="N26">
@@ -11283,7 +11283,7 @@
         <v>7.1165899273580898E-15</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1165899273580896E-12</v>
       </c>
       <c r="E27">
@@ -11293,23 +11293,23 @@
         <v>2.6189865444728901E-15</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6189865444728902E-12</v>
       </c>
       <c r="H27">
         <v>435.62475300842198</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>10.4266358734048</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3">
         <v>2.5898791887553198E-15</v>
       </c>
-      <c r="L27" s="1">
-        <f>K27*1000</f>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
         <v>2.5898791887553199E-12</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="2">
         <v>435.324093093192</v>
       </c>
       <c r="N27">
@@ -11336,7 +11336,7 @@
         <v>7.6348866336671698E-14</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6348866336671703E-11</v>
       </c>
       <c r="E28">
@@ -11346,23 +11346,23 @@
         <v>2.62313969591699E-15</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6231396959169899E-12</v>
       </c>
       <c r="H28">
         <v>435.448048307455</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <v>10.2247737638729</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3">
         <v>2.5617446958874899E-15</v>
       </c>
-      <c r="L28" s="1">
-        <f>K28*1000</f>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
         <v>2.5617446958874897E-12</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="2">
         <v>435.34360599476099</v>
       </c>
       <c r="N28">
@@ -11389,7 +11389,7 @@
         <v>1.4146633255430399E-14</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.41466332554304E-11</v>
       </c>
       <c r="E29">
@@ -11399,23 +11399,23 @@
         <v>2.57992605956877E-15</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.57992605956877E-12</v>
       </c>
       <c r="H29">
         <v>435.06647237427097</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>10.499725758925001</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="3">
         <v>2.5520143267072601E-15</v>
       </c>
-      <c r="L29" s="1">
-        <f>K29*1000</f>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
         <v>2.5520143267072602E-12</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="2">
         <v>435.37082014741401</v>
       </c>
       <c r="N29">
@@ -11442,7 +11442,7 @@
         <v>1.1660488810559101E-15</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1660488810559101E-12</v>
       </c>
       <c r="E30">
@@ -11452,23 +11452,23 @@
         <v>2.68934654534588E-15</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6893465453458801E-12</v>
       </c>
       <c r="H30">
         <v>437.44715096428803</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>10.128165668304399</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <v>2.61640575987036E-15</v>
       </c>
-      <c r="L30" s="1">
-        <f>K30*1000</f>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
         <v>2.6164057598703598E-12</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="2">
         <v>435.41992407617499</v>
       </c>
       <c r="N30">
@@ -11495,7 +11495,7 @@
         <v>4.66673222968312E-14</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6667322296831201E-11</v>
       </c>
       <c r="E31">
@@ -11505,23 +11505,23 @@
         <v>2.61640575987036E-15</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6164057598703598E-12</v>
       </c>
       <c r="H31">
         <v>435.41992407617499</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>10.0575981601236</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="3">
         <v>2.60812557236111E-15</v>
       </c>
-      <c r="L31" s="1">
-        <f>K31*1000</f>
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
         <v>2.6081255723611101E-12</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="2">
         <v>435.42137076654097</v>
       </c>
       <c r="N31">
@@ -11548,7 +11548,7 @@
         <v>1.8921747069914301E-14</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8921747069914302E-11</v>
       </c>
       <c r="E32">
@@ -11558,23 +11558,23 @@
         <v>2.5942696027291999E-15</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5942696027291998E-12</v>
       </c>
       <c r="H32">
         <v>435.08422956597701</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>10.122718632414999</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="3">
         <v>2.62313969591699E-15</v>
       </c>
-      <c r="L32" s="1">
-        <f>K32*1000</f>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
         <v>2.6231396959169899E-12</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="2">
         <v>435.448048307455</v>
       </c>
       <c r="N32">
@@ -11601,7 +11601,7 @@
         <v>1.85272554027318E-14</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8527255402731801E-11</v>
       </c>
       <c r="E33">
@@ -11611,23 +11611,23 @@
         <v>2.59587991771656E-15</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.59587991771656E-12</v>
       </c>
       <c r="H33">
         <v>435.07656196659002</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>10.0729234468232</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="3">
         <v>2.6085635092667902E-15</v>
       </c>
-      <c r="L33" s="1">
-        <f>K33*1000</f>
+      <c r="L33" s="3">
+        <f t="shared" si="0"/>
         <v>2.60856350926679E-12</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="2">
         <v>435.46314062943497</v>
       </c>
       <c r="N33">
@@ -11654,7 +11654,7 @@
         <v>4.5086822449618301E-14</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5086822449618304E-11</v>
       </c>
       <c r="E34">
@@ -11664,23 +11664,23 @@
         <v>2.6343932910499999E-15</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6343932910499998E-12</v>
       </c>
       <c r="H34">
         <v>435.63836782320101</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>10.009908821718099</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="3">
         <v>2.61504065136513E-15</v>
       </c>
-      <c r="L34" s="1">
-        <f>K34*1000</f>
+      <c r="L34" s="3">
+        <f t="shared" si="0"/>
         <v>2.61504065136513E-12</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="2">
         <v>435.61427789792498</v>
       </c>
       <c r="N34">
@@ -11707,7 +11707,7 @@
         <v>2.64149368485061E-14</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.64149368485061E-11</v>
       </c>
       <c r="E35">
@@ -11717,23 +11717,23 @@
         <v>2.60430543772917E-15</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6043054377291699E-12</v>
       </c>
       <c r="H35">
         <v>435.31471684367801</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>10.005775677380599</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="3">
         <v>2.6274786300750799E-15</v>
       </c>
-      <c r="L35" s="1">
-        <f>K35*1000</f>
+      <c r="L35" s="3">
+        <f t="shared" ref="L35:L52" si="3">K35*1000</f>
         <v>2.6274786300750799E-12</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="2">
         <v>435.62367162190799</v>
       </c>
       <c r="N35">
@@ -11760,7 +11760,7 @@
         <v>2.5324411126986001E-15</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5324411126986E-12</v>
       </c>
       <c r="E36">
@@ -11770,23 +11770,23 @@
         <v>2.59023577006609E-15</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5902357700660899E-12</v>
       </c>
       <c r="H36">
         <v>435.08973859011002</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>10.029415580217</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="3">
         <v>2.6189865444728901E-15</v>
       </c>
-      <c r="L36" s="1">
-        <f>K36*1000</f>
+      <c r="L36" s="3">
+        <f t="shared" si="3"/>
         <v>2.6189865444728902E-12</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="2">
         <v>435.62475300842198</v>
       </c>
       <c r="N36">
@@ -11813,7 +11813,7 @@
         <v>3.6603788959639398E-14</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.66037889596394E-11</v>
       </c>
       <c r="E37">
@@ -11823,23 +11823,23 @@
         <v>2.5882152137135498E-15</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.58821521371355E-12</v>
       </c>
       <c r="H37">
         <v>435.06430321532099</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>10.220071855489</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="3">
         <v>2.6343932910499999E-15</v>
       </c>
-      <c r="L37" s="1">
-        <f>K37*1000</f>
+      <c r="L37" s="3">
+        <f t="shared" si="3"/>
         <v>2.6343932910499998E-12</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>435.63836782320101</v>
       </c>
       <c r="N37">
@@ -11866,7 +11866,7 @@
         <v>5.6666944173194804E-14</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6666944173194802E-11</v>
       </c>
       <c r="E38">
@@ -11876,23 +11876,23 @@
         <v>2.5999418817288201E-15</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.59994188172882E-12</v>
       </c>
       <c r="H38">
         <v>435.21693915763097</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>10.1127936053722</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="3">
         <v>2.6437867850855E-15</v>
       </c>
-      <c r="L38" s="1">
-        <f>K38*1000</f>
+      <c r="L38" s="3">
+        <f t="shared" si="3"/>
         <v>2.6437867850854999E-12</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="2">
         <v>435.680084971209</v>
       </c>
       <c r="N38">
@@ -11919,7 +11919,7 @@
         <v>6.1643735091199306E-14</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.164373509119931E-11</v>
       </c>
       <c r="E39">
@@ -11929,23 +11929,23 @@
         <v>2.6420263279419399E-15</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6420263279419398E-12</v>
       </c>
       <c r="H39">
         <v>435.81335118015897</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>10.067541646112799</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="3">
         <v>2.6400135939308799E-15</v>
       </c>
-      <c r="L39" s="1">
-        <f>K39*1000</f>
+      <c r="L39" s="3">
+        <f t="shared" si="3"/>
         <v>2.64001359393088E-12</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="2">
         <v>435.72022051924301</v>
       </c>
       <c r="N39">
@@ -11972,7 +11972,7 @@
         <v>3.1743971200559703E-14</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1743971200559701E-11</v>
       </c>
       <c r="E40">
@@ -11982,23 +11982,23 @@
         <v>2.5722076209104398E-15</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5722076209104399E-12</v>
       </c>
       <c r="H40">
         <v>435.207577289955</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <v>9.9702651108776799</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="3">
         <v>2.6381039274023699E-15</v>
       </c>
-      <c r="L40" s="1">
-        <f>K40*1000</f>
+      <c r="L40" s="3">
+        <f t="shared" si="3"/>
         <v>2.6381039274023701E-12</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="2">
         <v>435.77367568683502</v>
       </c>
       <c r="N40">
@@ -12025,7 +12025,7 @@
         <v>2.8001839210477298E-14</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8001839210477298E-11</v>
       </c>
       <c r="E41">
@@ -12035,23 +12035,23 @@
         <v>2.5898791887553198E-15</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5898791887553199E-12</v>
       </c>
       <c r="H41">
         <v>435.324093093192</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>9.9621144772348806</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="3">
         <v>2.6105808564658702E-15</v>
       </c>
-      <c r="L41" s="1">
-        <f>K41*1000</f>
+      <c r="L41" s="3">
+        <f t="shared" si="3"/>
         <v>2.6105808564658702E-12</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="2">
         <v>435.77794698899601</v>
       </c>
       <c r="N41">
@@ -12078,7 +12078,7 @@
         <v>9.9657757867287104E-14</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.965775786728711E-11</v>
       </c>
       <c r="E42">
@@ -12088,23 +12088,23 @@
         <v>2.6585830393076501E-15</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6585830393076501E-12</v>
       </c>
       <c r="H42">
         <v>436.02613658422899</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <v>9.9621131050391796</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="3">
         <v>2.6105821044834601E-15</v>
       </c>
-      <c r="L42" s="1">
-        <f>K42*1000</f>
+      <c r="L42" s="3">
+        <f t="shared" si="3"/>
         <v>2.6105821044834603E-12</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="2">
         <v>435.77796510962003</v>
       </c>
       <c r="N42">
@@ -12131,7 +12131,7 @@
         <v>9.0351247466622305E-14</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0351247466622309E-11</v>
       </c>
       <c r="E43">
@@ -12141,23 +12141,23 @@
         <v>2.5888373400803598E-15</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5888373400803598E-12</v>
       </c>
       <c r="H43">
         <v>435.20536290234003</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>9.9693883317439393</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="3">
         <v>2.6342454581949598E-15</v>
       </c>
-      <c r="L43" s="1">
-        <f>K43*1000</f>
+      <c r="L43" s="3">
+        <f t="shared" si="3"/>
         <v>2.6342454581949597E-12</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="2">
         <v>435.79195613971098</v>
       </c>
       <c r="N43">
@@ -12184,7 +12184,7 @@
         <v>5.2034673200556107E-14</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2034673200556108E-11</v>
       </c>
       <c r="E44">
@@ -12194,23 +12194,23 @@
         <v>2.5617446958874899E-15</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5617446958874897E-12</v>
       </c>
       <c r="H44">
         <v>435.34360599476099</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>10.0532321103887</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <v>2.6420263279419399E-15</v>
       </c>
-      <c r="L44" s="1">
-        <f>K44*1000</f>
+      <c r="L44" s="3">
+        <f t="shared" si="3"/>
         <v>2.6420263279419398E-12</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="2">
         <v>435.81335118015897</v>
       </c>
       <c r="N44">
@@ -12237,7 +12237,7 @@
         <v>5.4539502415464806E-14</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4539502415464804E-11</v>
       </c>
       <c r="E45">
@@ -12247,23 +12247,23 @@
         <v>2.6105808564658702E-15</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6105808564658702E-12</v>
       </c>
       <c r="H45">
         <v>435.77794698899601</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <v>10.0532321103887</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="3">
         <v>2.6420263279419399E-15</v>
       </c>
-      <c r="L45" s="1">
-        <f>K45*1000</f>
+      <c r="L45" s="3">
+        <f t="shared" si="3"/>
         <v>2.6420263279419398E-12</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="2">
         <v>435.81335118015897</v>
       </c>
       <c r="N45">
@@ -12290,7 +12290,7 @@
         <v>8.1312245991770006E-14</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1312245991770011E-11</v>
       </c>
       <c r="E46">
@@ -12300,23 +12300,23 @@
         <v>2.5651185891625402E-15</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.56511858916254E-12</v>
       </c>
       <c r="H46">
         <v>435.32352749312997</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <v>10.1193890936683</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="3">
         <v>2.6585830393076501E-15</v>
       </c>
-      <c r="L46" s="1">
-        <f>K46*1000</f>
+      <c r="L46" s="3">
+        <f t="shared" si="3"/>
         <v>2.6585830393076501E-12</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="2">
         <v>436.02613658422899</v>
       </c>
       <c r="N46">
@@ -12343,7 +12343,7 @@
         <v>7.8831861333443101E-14</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8831861333443105E-11</v>
       </c>
       <c r="E47">
@@ -12353,23 +12353,23 @@
         <v>2.6381039274023699E-15</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6381039274023701E-12</v>
       </c>
       <c r="H47">
         <v>435.77367568683502</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>9.9644490835342694</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
         <v>2.6598526914785698E-15</v>
       </c>
-      <c r="L47" s="1">
-        <f>K47*1000</f>
+      <c r="L47" s="3">
+        <f t="shared" si="3"/>
         <v>2.6598526914785697E-12</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="2">
         <v>436.24714512179702</v>
       </c>
       <c r="N47">
@@ -12396,7 +12396,7 @@
         <v>5.1784461969512501E-14</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1784461969512499E-11</v>
       </c>
       <c r="E48">
@@ -12406,23 +12406,23 @@
         <v>2.5839730397320499E-15</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.58397303973205E-12</v>
       </c>
       <c r="H48">
         <v>435.22412173460401</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <v>10.8196881469592</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="3">
         <v>2.5592802397881498E-15</v>
       </c>
-      <c r="L48" s="1">
-        <f>K48*1000</f>
+      <c r="L48" s="3">
+        <f t="shared" si="3"/>
         <v>2.5592802397881497E-12</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="2">
         <v>436.57265600396801</v>
       </c>
       <c r="N48">
@@ -12449,7 +12449,7 @@
         <v>1.4187383698700501E-14</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4187383698700501E-11</v>
       </c>
       <c r="E49">
@@ -12459,23 +12459,23 @@
         <v>2.5893286057591698E-15</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5893286057591697E-12</v>
       </c>
       <c r="H49">
         <v>435.19568705974098</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <v>9.6799420650123604</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="3">
         <v>2.6278034878158599E-15</v>
       </c>
-      <c r="L49" s="1">
-        <f>K49*1000</f>
+      <c r="L49" s="3">
+        <f t="shared" si="3"/>
         <v>2.62780348781586E-12</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="2">
         <v>437.04391293420099</v>
       </c>
       <c r="N49">
@@ -12502,7 +12502,7 @@
         <v>2.0240692551036201E-14</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0240692551036202E-11</v>
       </c>
       <c r="E50">
@@ -12512,23 +12512,23 @@
         <v>2.59623656872582E-15</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.59623656872582E-12</v>
       </c>
       <c r="H50">
         <v>435.26043625155501</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>9.6491739886447601</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="3">
         <v>2.63910664266862E-15</v>
       </c>
-      <c r="L50" s="1">
-        <f>K50*1000</f>
+      <c r="L50" s="3">
+        <f t="shared" si="3"/>
         <v>2.63910664266862E-12</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="2">
         <v>437.368976580425</v>
       </c>
       <c r="N50">
@@ -12555,7 +12555,7 @@
         <v>8.4364478881258701E-14</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4364478881258702E-11</v>
       </c>
       <c r="E51">
@@ -12565,23 +12565,23 @@
         <v>2.5914084122223098E-15</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5914084122223097E-12</v>
       </c>
       <c r="H51">
         <v>435.30974659738899</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>9.7524431897288295</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="3">
         <v>2.68934654534588E-15</v>
       </c>
-      <c r="L51" s="1">
-        <f>K51*1000</f>
+      <c r="L51" s="3">
+        <f t="shared" si="3"/>
         <v>2.6893465453458801E-12</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="2">
         <v>437.44715096428803</v>
       </c>
       <c r="N51">
@@ -12608,7 +12608,7 @@
         <v>1.4785440018890701E-15</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4785440018890701E-12</v>
       </c>
       <c r="E52">
@@ -12618,23 +12618,23 @@
         <v>2.6274786300750799E-15</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6274786300750799E-12</v>
       </c>
       <c r="H52">
         <v>435.62367162190799</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <v>10.1879946372978</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="3">
         <v>2.7086561121503E-15</v>
       </c>
-      <c r="L52" s="1">
-        <f>K52*1000</f>
+      <c r="L52" s="3">
+        <f t="shared" si="3"/>
         <v>2.7086561121502998E-12</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="2">
         <v>438.17506850762402</v>
       </c>
       <c r="N52">
@@ -14405,7 +14405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072900B7-9C8E-4910-8B75-EE2A44C7E436}">
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R171" sqref="R171"/>
     </sheetView>
   </sheetViews>
